--- a/실무_엑셀_예제_파일/Chapter04/04-009.xlsx
+++ b/실무_엑셀_예제_파일/Chapter04/04-009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75193F05-4E64-4110-BED7-924B99181017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC1B3F3-7D4B-4165-A8AA-84F7355AB28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14736" xr2:uid="{08F9F7D2-0417-4B01-940B-B1938FDB2616}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{08F9F7D2-0417-4B01-940B-B1938FDB2616}"/>
   </bookViews>
   <sheets>
     <sheet name="제품소개서" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">[1]제품정보!$A$1:$D$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -534,24 +525,21 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -567,11 +555,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,7 +885,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="제품정보"/>
@@ -1331,33 +1325,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6932A92-7FF7-46FD-8AE4-8282E9E8D084}">
   <dimension ref="B1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" customWidth="1"/>
-    <col min="4" max="5" width="9.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.08203125" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" customWidth="1"/>
+    <col min="4" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="2:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="2:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1377,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -1395,7 +1391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -1413,7 +1409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="2"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
@@ -1431,7 +1427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
         <v>25</v>
@@ -1449,7 +1445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
       <c r="C9" s="5" t="s">
         <v>30</v>
@@ -1467,12 +1463,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:7" ht="70.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="2:7" ht="70" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
@@ -1487,45 +1483,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4720C98D-4203-412C-9ED2-98CA88B6F27E}">
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.296875" customWidth="1"/>
-    <col min="8" max="10" width="11.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" customWidth="1"/>
+    <col min="2" max="2" width="12.4140625" customWidth="1"/>
+    <col min="3" max="3" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="8" max="10" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:6" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="2:6" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="2:6" ht="7.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="29" t="str">
+      <c r="E4" s="28" t="str">
         <f ca="1">TEXT(TODAY(),"yyyy년 mm월 dd일")</f>
-        <v>2021년 10월 21일</v>
-      </c>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+        <v>2025년 04월 18일</v>
+      </c>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="12" t="s">
         <v>41</v>
       </c>
@@ -1542,30 +1540,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="30">
+        <v>5</v>
+      </c>
       <c r="E6" s="14">
         <v>920</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6:F14" si="0">IFERROR(E6*D6,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="16">
         <v>780</v>
       </c>
@@ -1574,14 +1574,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="16">
         <v>920</v>
       </c>
@@ -1590,44 +1590,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="31">
+        <v>5</v>
+      </c>
       <c r="E9" s="16">
         <v>920</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="31">
+        <v>5</v>
+      </c>
       <c r="E10" s="16">
         <v>1050</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" s="10"/>
       <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="16">
         <v>0</v>
       </c>
@@ -1636,12 +1640,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="16">
         <v>0</v>
       </c>
@@ -1650,12 +1654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="16">
         <v>0</v>
       </c>
@@ -1664,12 +1668,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="24"/>
+      <c r="D14" s="32"/>
       <c r="E14" s="18">
         <v>0</v>
       </c>
@@ -1678,24 +1682,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+    <row r="15" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="25">
+      <c r="C15" s="27"/>
+      <c r="D15" s="22">
         <f>SUM(D6:D14)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="7">
         <f>SUM(F6:F14)</f>
-        <v>0</v>
+        <v>14450</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="OnGMSF7ud3TSm2Y1eg1VMPbORuw1yNQRu0PUeXn53qKAscWa9cvHL1RmaROD3k+hnY6qXFpSUH2o3b1ZRtc5Tw==" saltValue="6iLq/NVwVht1JHTuMSAXgA==" spinCount="100000" sheet="1" scenarios="1" autoFilter="0"/>
   <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B15:C15"/>
@@ -1712,75 +1717,75 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" customWidth="1"/>
-    <col min="2" max="3" width="9.796875" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="16">
         <v>920</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="24">
         <v>644</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="16">
         <v>780</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="24">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="16">
         <v>920</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="24">
         <v>644</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="16">
         <v>920</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="24">
         <v>644</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="16">
         <v>1050</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="24">
         <v>735</v>
       </c>
     </row>
